--- a/biology/Zoologie/Bergeronnette_(oiseau)/Bergeronnette_(oiseau).xlsx
+++ b/biology/Zoologie/Bergeronnette_(oiseau)/Bergeronnette_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bergeronnette est le nom que la nomenclature aviaire en langue française (mise à jour) donne à 14 espèces d'oiseaux — 13 constituant le genre Motacilla et une constituant le genre monospécifique Dendronanthus — qui font partie de la famille des Motacillidae (ordre des Passeriformes). Doté d'un plumage coloré et d'une longue queue toujours en mouvement, cet oiseau insectivore doit son nom au diminutif de bergère parce qu'il se plaît au milieu des troupeaux.
 Ce sont :
